--- a/biology/Zoologie/Creoleon/Creoleon.xlsx
+++ b/biology/Zoologie/Creoleon/Creoleon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Creoleon est un genre d'insectes névroptères de la famille des Myrmeleontidae, de la sous-famille des Myrmeleontinae et de la tribu des Nemoleontini.
 </t>
@@ -511,10 +523,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Creoleon aegyptiacus - Creoleon afer - Creoleon africanus - Creoleon antennatus - Creoleon arenosus - Creoleon cecconinus - Creoleon cervinus - Creoleon chappuisi - Creoleon cinerascens - Creoleon cinnamomeus - Creoleon confalonierii - Creoleon decussatus - Creoleon desertus - Creoleon diana - Creoleon ducalis - Creoleon elegans - Creoleon falcatus - Creoleon fulvinervis - Creoleon giganteus - Creoleon griseus - Creoleon gularis - Creoleon hiericontinus - Creoleon interruptus - Creoleon irene - Creoleon languescens - Creoleon limpidus - Creoleon littoreus - Creoleon loanguanus - Creoleon lugdunensis - Creoleon lupinus - Creoleon luteipennis - Creoleon mashunus - Creoleon maurus - Creoleon mortifer - Creoleon neftanus - Creoleon neurasthenicus - Creoleon nigritarsis - Creoleon nubifer - Creoleon parallelus - Creoleon parvulus - Creoleon patrizianus - Creoleon pauperatus - Creoleon persicus - Creoleon pretiosus - Creoleon pullus - Creoleon pusillus - Creoleon remanei - Creoleon somalicus - Creoleon surcoufi - Creoleon tarsalis - Creoleon tenuatus - Creoleon turbidus - Creoleon ultimus - Creoleon venosus
-Selon the Paleontology Database, il existe aussi une espèce fossile: Creoleon plumbeus Tillyard, 1918, trouvée dans des terrains datant du Mésozoïque dans le Queensland, en Australie[1].
+Selon the Paleontology Database, il existe aussi une espèce fossile: Creoleon plumbeus Tillyard, 1918, trouvée dans des terrains datant du Mésozoïque dans le Queensland, en Australie.
 </t>
         </is>
       </c>
